--- a/最小生成树模型城市数据.xlsx
+++ b/最小生成树模型城市数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16692\Desktop\数学建模\2019shenzhenmcm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Math\2019shenzhenmcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272148E7-E5BE-4F66-ADEF-47BB361B1EE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C07C2BF-80B7-4D6B-A685-300A3FE9C04B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F8465CA-3D35-48E8-B680-9522EE06C0A1}"/>
+    <workbookView xWindow="7965" yWindow="1320" windowWidth="14625" windowHeight="11715" xr2:uid="{9F8465CA-3D35-48E8-B680-9522EE06C0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>端点</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>江门</t>
+  </si>
+  <si>
+    <t>肇庆</t>
+  </si>
+  <si>
+    <t>中山</t>
+  </si>
+  <si>
+    <t>惠州</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>清远</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>距离/km</t>
+  </si>
+  <si>
+    <t>云浮</t>
+  </si>
+  <si>
+    <t>湛江</t>
+  </si>
+  <si>
+    <t>汕尾</t>
+  </si>
+  <si>
+    <t>揭阳</t>
+  </si>
+  <si>
+    <t>韶关</t>
+  </si>
+  <si>
+    <t>河源</t>
+  </si>
+  <si>
+    <t>阳江</t>
+  </si>
+  <si>
+    <t>茂名</t>
+  </si>
+  <si>
+    <t>梅州</t>
+  </si>
+  <si>
+    <t>2.城市编号</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,21 +121,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD6D6D6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD6D6D6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD6D6D6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD6D6D6"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -70,9 +178,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B132050E-9A1F-466E-92E1-2B81FEC0B626}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1517,8 +1634,311 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1">
+        <v>8</v>
+      </c>
+      <c r="J55" s="1">
+        <v>9</v>
+      </c>
+      <c r="K55" s="1">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C58" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>48.7</v>
+      </c>
+      <c r="F58" s="2">
+        <v>64</v>
+      </c>
+      <c r="G58" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="H58" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I58" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="J58" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="K58" s="2">
+        <v>106</v>
+      </c>
+      <c r="L58" s="2">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2">
+        <v>15</v>
+      </c>
+      <c r="F59" s="2">
+        <v>16</v>
+      </c>
+      <c r="G59" s="2">
+        <v>17</v>
+      </c>
+      <c r="H59" s="2">
+        <v>18</v>
+      </c>
+      <c r="I59" s="2">
+        <v>19</v>
+      </c>
+      <c r="J59" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" s="2">
+        <v>21</v>
+      </c>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="C62" s="2">
+        <v>51.4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="E62" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="F62" s="2">
+        <v>142.1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>179</v>
+      </c>
+      <c r="H62" s="2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I62" s="2">
+        <v>102</v>
+      </c>
+      <c r="J62" s="2">
+        <v>130.5</v>
+      </c>
+      <c r="K62" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>